--- a/biology/Médecine/Empoisonnement_au_fer/Empoisonnement_au_fer.xlsx
+++ b/biology/Médecine/Empoisonnement_au_fer/Empoisonnement_au_fer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’empoisonnement au fer est une intoxication causée par une ingurgitation excessive de sels ferreux.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'intoxication au fer est une cause de mortalité infantile par intoxication médicamenteuse aigüe. Les enfants (le plus souvent de un à quatre ans) confondent les comprimés à base de fer, laissés à leur portée par négligence, avec des bonbons. L'empoisonnement se manifeste par une gastro-entérite aiguë, une accalmie, puis un choc et une insuffisance hépatique[1].
-Une forme de toxicité au fer a été observée en Afrique où une bière artisanale était brassée dans des pots en fer[2].
-Le traitement consiste à effectuer un lavage intestinal, et en cas d'empoisonnement grave (par exemple avec acidose métabolique) administrer un chélateur du fer tel que la déféroxamine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intoxication au fer est une cause de mortalité infantile par intoxication médicamenteuse aigüe. Les enfants (le plus souvent de un à quatre ans) confondent les comprimés à base de fer, laissés à leur portée par négligence, avec des bonbons. L'empoisonnement se manifeste par une gastro-entérite aiguë, une accalmie, puis un choc et une insuffisance hépatique.
+Une forme de toxicité au fer a été observée en Afrique où une bière artisanale était brassée dans des pots en fer.
+Le traitement consiste à effectuer un lavage intestinal, et en cas d'empoisonnement grave (par exemple avec acidose métabolique) administrer un chélateur du fer tel que la déféroxamine.
 </t>
         </is>
       </c>
